--- a/assignedWorkbook.xlsx
+++ b/assignedWorkbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\oberon\Oberon\Midterm-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1AF117-8232-41DC-8D79-CEC440EAEE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{561D15D6-C578-4771-A4F6-269523E5EABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{59D45EA8-9A24-4978-88A6-9F8F127519C9}"/>
   </bookViews>
@@ -1566,7 +1566,7 @@
   <dimension ref="A1:K249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,57 +1620,57 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -1679,24 +1679,24 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -1711,24 +1711,24 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1743,24 +1743,24 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1775,24 +1775,24 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -1807,24 +1807,24 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -1839,248 +1839,248 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="G16" t="s">
         <v>32</v>
@@ -2095,24 +2095,24 @@
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
@@ -2127,24 +2127,24 @@
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2159,24 +2159,24 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -2191,56 +2191,56 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
         <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="G21" t="s">
         <v>32</v>
@@ -2249,30 +2249,30 @@
         <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -2287,88 +2287,88 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
         <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H24" t="s">
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -2383,24 +2383,24 @@
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -2415,120 +2415,120 @@
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
         <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
         <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="J28" t="s">
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s">
         <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J29" t="s">
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -2543,24 +2543,24 @@
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -2569,158 +2569,158 @@
         <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
         <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
         <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J33" t="s">
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s">
         <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H35" t="s">
         <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J35" t="s">
         <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -2735,24 +2735,24 @@
         <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -2767,24 +2767,24 @@
         <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -2799,24 +2799,24 @@
         <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -2831,56 +2831,56 @@
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J40" t="s">
         <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="G41" t="s">
         <v>32</v>
@@ -2895,24 +2895,24 @@
         <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -2927,24 +2927,24 @@
         <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -2959,24 +2959,24 @@
         <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="F44" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -2991,24 +2991,24 @@
         <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -3023,88 +3023,88 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H46" t="s">
         <v>23</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J46" t="s">
         <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="F47" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H47" t="s">
         <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J47" t="s">
         <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="F48" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -3119,24 +3119,24 @@
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="G49" t="s">
         <v>32</v>
@@ -3151,152 +3151,152 @@
         <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="F50" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H50" t="s">
         <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J50" t="s">
         <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="F51" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H51" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="F52" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s">
         <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -3305,39 +3305,39 @@
         <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="J54" t="s">
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H55" t="s">
         <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
@@ -3348,28 +3348,28 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="F56" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
         <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J56" t="s">
         <v>17</v>
@@ -3380,28 +3380,28 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="F57" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
         <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
@@ -3412,28 +3412,28 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="F58" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
@@ -3444,28 +3444,28 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
         <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J59" t="s">
         <v>17</v>
@@ -3476,28 +3476,28 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="F60" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
         <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
@@ -3508,28 +3508,28 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="F61" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
@@ -3540,28 +3540,28 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="F62" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
         <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J62" t="s">
         <v>17</v>
@@ -3572,28 +3572,28 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="F63" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
         <v>23</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J63" t="s">
         <v>17</v>
@@ -3604,28 +3604,28 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="F64" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
         <v>23</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J64" t="s">
         <v>17</v>
@@ -3668,25 +3668,25 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I66" t="s">
         <v>47</v>
@@ -3700,19 +3700,19 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -3732,25 +3732,25 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I68" t="s">
         <v>47</v>
@@ -3764,25 +3764,25 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
         <v>47</v>
@@ -3796,19 +3796,19 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="F70" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -3828,19 +3828,19 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="F71" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -3860,25 +3860,25 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="F72" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
         <v>47</v>
@@ -3892,25 +3892,25 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="F73" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I73" t="s">
         <v>47</v>
@@ -3924,19 +3924,19 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="F74" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -3988,19 +3988,19 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="G76" t="s">
         <v>46</v>
@@ -4020,19 +4020,19 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="F77" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G77" t="s">
         <v>46</v>
@@ -4052,25 +4052,25 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="F78" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G78" t="s">
         <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
         <v>47</v>
@@ -4084,28 +4084,28 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J79" t="s">
         <v>17</v>
@@ -4116,25 +4116,25 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F80" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="G80" t="s">
         <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
         <v>47</v>
@@ -4148,28 +4148,28 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J81" t="s">
         <v>17</v>
@@ -4180,25 +4180,25 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F82" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
         <v>47</v>
@@ -4212,28 +4212,28 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
         <v>23</v>
       </c>
       <c r="I83" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J83" t="s">
         <v>17</v>
@@ -4244,19 +4244,19 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B84" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="F84" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="G84" t="s">
         <v>46</v>
@@ -4276,28 +4276,28 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="F85" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
         <v>23</v>
       </c>
       <c r="I85" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J85" t="s">
         <v>17</v>
@@ -4308,19 +4308,19 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="F86" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="G86" t="s">
         <v>46</v>
@@ -4340,28 +4340,28 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="F87" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="G87" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
         <v>23</v>
       </c>
       <c r="I87" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J87" t="s">
         <v>17</v>
@@ -4372,25 +4372,25 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F88" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G88" t="s">
         <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
         <v>47</v>
@@ -4404,28 +4404,28 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F89" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
         <v>23</v>
       </c>
       <c r="I89" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J89" t="s">
         <v>17</v>
@@ -4436,25 +4436,25 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F90" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
         <v>47</v>
@@ -4468,28 +4468,28 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="F91" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
         <v>23</v>
       </c>
       <c r="I91" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J91" t="s">
         <v>17</v>
@@ -4500,25 +4500,25 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F92" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G92" t="s">
         <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I92" t="s">
         <v>47</v>
@@ -4532,19 +4532,19 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="F93" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="G93" t="s">
         <v>46</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
         <v>153</v>
@@ -4582,7 +4582,7 @@
         <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
         <v>47</v>
@@ -4596,28 +4596,28 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F95" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
         <v>23</v>
       </c>
       <c r="I95" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J95" t="s">
         <v>17</v>
@@ -4628,25 +4628,25 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F96" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="G96" t="s">
         <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I96" t="s">
         <v>47</v>
@@ -4660,25 +4660,25 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F97" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="G97" t="s">
         <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I97" t="s">
         <v>47</v>
@@ -4692,28 +4692,28 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F98" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
         <v>23</v>
       </c>
       <c r="I98" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J98" t="s">
         <v>17</v>
@@ -4724,179 +4724,179 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B99" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="F99" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
         <v>23</v>
       </c>
       <c r="I99" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J99" t="s">
         <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="F100" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
         <v>23</v>
       </c>
       <c r="I100" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J100" t="s">
         <v>17</v>
       </c>
       <c r="K100" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="F101" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
         <v>23</v>
       </c>
       <c r="I101" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J101" t="s">
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="F102" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
         <v>23</v>
       </c>
       <c r="I102" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J102" t="s">
         <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="F103" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="G103" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H103" t="s">
         <v>23</v>
       </c>
       <c r="I103" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="J103" t="s">
         <v>17</v>
       </c>
       <c r="K103" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="B104" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="F104" t="s">
-        <v>178</v>
+        <v>71</v>
       </c>
       <c r="G104" t="s">
         <v>32</v>
@@ -4905,62 +4905,62 @@
         <v>23</v>
       </c>
       <c r="I104" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="F105" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
         <v>23</v>
       </c>
       <c r="I105" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J105" t="s">
         <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="B106" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="F106" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="G106" t="s">
         <v>14</v>
@@ -4975,248 +4975,248 @@
         <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="F107" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
         <v>23</v>
       </c>
       <c r="I107" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J107" t="s">
         <v>17</v>
       </c>
       <c r="K107" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="F108" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
         <v>23</v>
       </c>
       <c r="I108" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J108" t="s">
         <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="F109" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
         <v>23</v>
       </c>
       <c r="I109" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J109" t="s">
         <v>17</v>
       </c>
       <c r="K109" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="F110" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J110" t="s">
         <v>17</v>
       </c>
       <c r="K110" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="F111" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
         <v>23</v>
       </c>
       <c r="I111" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J111" t="s">
         <v>17</v>
       </c>
       <c r="K111" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="F112" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
         <v>23</v>
       </c>
       <c r="I112" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J112" t="s">
         <v>17</v>
       </c>
       <c r="K112" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="F113" t="s">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s">
         <v>23</v>
       </c>
       <c r="I113" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J113" t="s">
         <v>17</v>
       </c>
       <c r="K113" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="F114" t="s">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s">
         <v>32</v>
@@ -5231,24 +5231,24 @@
         <v>17</v>
       </c>
       <c r="K114" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="F115" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -5263,24 +5263,24 @@
         <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="B116" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="F116" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="G116" t="s">
         <v>32</v>
@@ -5295,24 +5295,24 @@
         <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
       </c>
       <c r="E117" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="F117" t="s">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -5327,24 +5327,24 @@
         <v>17</v>
       </c>
       <c r="K117" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="F118" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="G118" t="s">
         <v>32</v>
@@ -5359,24 +5359,24 @@
         <v>17</v>
       </c>
       <c r="K118" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="F119" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="G119" t="s">
         <v>32</v>
@@ -5391,24 +5391,24 @@
         <v>17</v>
       </c>
       <c r="K119" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="F120" t="s">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c r="G120" t="s">
         <v>32</v>
@@ -5423,24 +5423,24 @@
         <v>17</v>
       </c>
       <c r="K120" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="B121" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="F121" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="G121" t="s">
         <v>32</v>
@@ -5455,24 +5455,24 @@
         <v>17</v>
       </c>
       <c r="K121" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="B122" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="F122" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="G122" t="s">
         <v>32</v>
@@ -5487,24 +5487,24 @@
         <v>17</v>
       </c>
       <c r="K122" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="F123" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="G123" t="s">
         <v>32</v>
@@ -5519,24 +5519,24 @@
         <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="B124" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="F124" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="G124" t="s">
         <v>32</v>
@@ -5551,24 +5551,24 @@
         <v>17</v>
       </c>
       <c r="K124" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
       <c r="F125" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
       <c r="G125" t="s">
         <v>32</v>
@@ -5583,24 +5583,24 @@
         <v>17</v>
       </c>
       <c r="K125" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="F126" t="s">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c r="G126" t="s">
         <v>32</v>
@@ -5615,56 +5615,56 @@
         <v>17</v>
       </c>
       <c r="K126" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="F127" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="G127" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H127" t="s">
         <v>23</v>
       </c>
       <c r="I127" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J127" t="s">
         <v>17</v>
       </c>
       <c r="K127" t="s">
-        <v>229</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="B128" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="F128" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="G128" t="s">
         <v>32</v>
@@ -5673,94 +5673,94 @@
         <v>23</v>
       </c>
       <c r="I128" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="J128" t="s">
         <v>17</v>
       </c>
       <c r="K128" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
         <v>23</v>
       </c>
       <c r="I129" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J129" t="s">
         <v>17</v>
       </c>
       <c r="K129" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="F130" t="s">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="J130" t="s">
         <v>17</v>
       </c>
       <c r="K130" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="B131" t="s">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="F131" t="s">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="G131" t="s">
         <v>14</v>
@@ -5775,24 +5775,24 @@
         <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="C132" t="s">
         <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="F132" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
@@ -5807,248 +5807,248 @@
         <v>17</v>
       </c>
       <c r="K132" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="C133" t="s">
         <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="F133" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
         <v>23</v>
       </c>
       <c r="I133" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J133" t="s">
         <v>17</v>
       </c>
       <c r="K133" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J134" t="s">
         <v>17</v>
       </c>
       <c r="K134" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="B135" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
         <v>23</v>
       </c>
       <c r="I135" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J135" t="s">
         <v>17</v>
       </c>
       <c r="K135" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="B136" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="F136" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
         <v>23</v>
       </c>
       <c r="I136" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J136" t="s">
         <v>17</v>
       </c>
       <c r="K136" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="B137" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="F137" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
         <v>23</v>
       </c>
       <c r="I137" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J137" t="s">
         <v>17</v>
       </c>
       <c r="K137" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="B138" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H138" t="s">
         <v>23</v>
       </c>
       <c r="I138" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J138" t="s">
         <v>17</v>
       </c>
       <c r="K138" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>252</v>
+        <v>56</v>
       </c>
       <c r="B139" t="s">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="C139" t="s">
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="F139" t="s">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H139" t="s">
         <v>23</v>
       </c>
       <c r="I139" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J139" t="s">
         <v>17</v>
       </c>
       <c r="K139" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>254</v>
+        <v>64</v>
       </c>
       <c r="B140" t="s">
-        <v>255</v>
+        <v>65</v>
       </c>
       <c r="C140" t="s">
         <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>255</v>
+        <v>65</v>
       </c>
       <c r="F140" t="s">
-        <v>255</v>
+        <v>65</v>
       </c>
       <c r="G140" t="s">
         <v>32</v>
@@ -6063,24 +6063,24 @@
         <v>17</v>
       </c>
       <c r="K140" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>256</v>
+        <v>52</v>
       </c>
       <c r="B141" t="s">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="F141" t="s">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="G141" t="s">
         <v>32</v>
@@ -6095,387 +6095,387 @@
         <v>17</v>
       </c>
       <c r="K141" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>258</v>
+        <v>54</v>
       </c>
       <c r="B142" t="s">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="F142" t="s">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="G142" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H142" t="s">
         <v>23</v>
       </c>
       <c r="I142" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J142" t="s">
         <v>17</v>
       </c>
       <c r="K142" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="B143" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="F143" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="G143" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H143" t="s">
         <v>23</v>
       </c>
       <c r="I143" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J143" t="s">
         <v>17</v>
       </c>
       <c r="K143" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>261</v>
+        <v>50</v>
       </c>
       <c r="B144" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="C144" t="s">
         <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="F144" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="G144" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H144" t="s">
         <v>23</v>
       </c>
       <c r="I144" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J144" t="s">
         <v>17</v>
       </c>
       <c r="K144" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>262</v>
+        <v>34</v>
       </c>
       <c r="B145" t="s">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H145" t="s">
         <v>23</v>
       </c>
       <c r="I145" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J145" t="s">
         <v>17</v>
       </c>
       <c r="K145" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="B146" t="s">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="F146" t="s">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H146" t="s">
         <v>23</v>
       </c>
       <c r="I146" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J146" t="s">
         <v>17</v>
       </c>
       <c r="K146" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="B147" t="s">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
       </c>
       <c r="E147" t="s">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="F147" t="s">
-        <v>259</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H147" t="s">
         <v>23</v>
       </c>
       <c r="I147" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J147" t="s">
         <v>17</v>
       </c>
       <c r="K147" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>265</v>
+        <v>30</v>
       </c>
       <c r="B148" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="C148" t="s">
         <v>13</v>
       </c>
       <c r="E148" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H148" t="s">
         <v>23</v>
       </c>
       <c r="I148" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J148" t="s">
         <v>17</v>
       </c>
       <c r="K148" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="B149" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="C149" t="s">
         <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H149" t="s">
         <v>23</v>
       </c>
       <c r="I149" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J149" t="s">
         <v>17</v>
       </c>
       <c r="K149" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="B150" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="C150" t="s">
         <v>13</v>
       </c>
       <c r="E150" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H150" t="s">
         <v>23</v>
       </c>
       <c r="I150" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J150" t="s">
         <v>17</v>
       </c>
       <c r="K150" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>259</v>
+        <v>61</v>
       </c>
       <c r="C151" t="s">
         <v>13</v>
       </c>
       <c r="E151" t="s">
-        <v>259</v>
+        <v>61</v>
       </c>
       <c r="F151" t="s">
-        <v>259</v>
+        <v>61</v>
       </c>
       <c r="G151" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H151" t="s">
         <v>23</v>
       </c>
       <c r="I151" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J151" t="s">
         <v>17</v>
       </c>
       <c r="K151" t="s">
-        <v>229</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B152" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
       </c>
       <c r="E152" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G152" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H152" t="s">
         <v>23</v>
       </c>
       <c r="I152" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="B153" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
       </c>
       <c r="E153" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="G153" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H153" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>273</v>
+        <v>380</v>
       </c>
       <c r="B154" t="s">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="C154" t="s">
         <v>13</v>
       </c>
       <c r="E154" t="s">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -6484,21 +6484,21 @@
         <v>23</v>
       </c>
       <c r="I154" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>387</v>
       </c>
       <c r="B155" t="s">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="C155" t="s">
         <v>13</v>
       </c>
       <c r="E155" t="s">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="G155" t="s">
         <v>32</v>
@@ -6507,67 +6507,67 @@
         <v>23</v>
       </c>
       <c r="I155" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B156" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
         <v>23</v>
       </c>
       <c r="I156" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B157" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
       </c>
       <c r="E157" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
         <v>23</v>
       </c>
       <c r="I157" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="B158" t="s">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
       </c>
       <c r="E158" t="s">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="G158" t="s">
         <v>14</v>
@@ -6581,154 +6581,154 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="B159" t="s">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="C159" t="s">
         <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
         <v>23</v>
       </c>
       <c r="I159" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="B160" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C160" t="s">
         <v>13</v>
       </c>
       <c r="E160" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
         <v>23</v>
       </c>
       <c r="I160" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B161" t="s">
-        <v>84</v>
+        <v>272</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
       </c>
       <c r="E161" t="s">
-        <v>84</v>
+        <v>272</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H161" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B162" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="C162" t="s">
         <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H162" t="s">
         <v>23</v>
       </c>
       <c r="I162" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B163" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H163" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B164" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H164" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I164" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B165" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C165" t="s">
         <v>13</v>
       </c>
       <c r="E165" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G165" t="s">
         <v>46</v>
@@ -6742,22 +6742,22 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B166" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="C166" t="s">
         <v>13</v>
       </c>
       <c r="E166" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="G166" t="s">
         <v>46</v>
       </c>
       <c r="H166" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
@@ -6765,85 +6765,85 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B167" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
       </c>
       <c r="E167" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H167" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="B168" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="C168" t="s">
         <v>13</v>
       </c>
       <c r="E168" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H168" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I168" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="B169" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="C169" t="s">
         <v>13</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H169" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I169" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="B170" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C170" t="s">
         <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G170" t="s">
         <v>46</v>
@@ -6857,16 +6857,16 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="B171" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C171" t="s">
         <v>13</v>
       </c>
       <c r="E171" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G171" t="s">
         <v>46</v>
@@ -6880,16 +6880,16 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="B172" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
       </c>
       <c r="E172" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="G172" t="s">
         <v>46</v>
@@ -6903,108 +6903,108 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="B173" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
       </c>
       <c r="E173" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H173" t="s">
         <v>23</v>
       </c>
       <c r="I173" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="B174" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
       </c>
       <c r="E174" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H174" t="s">
         <v>23</v>
       </c>
       <c r="I174" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="B175" t="s">
-        <v>241</v>
+        <v>378</v>
       </c>
       <c r="C175" t="s">
         <v>13</v>
       </c>
       <c r="E175" t="s">
-        <v>241</v>
+        <v>378</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H175" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I175" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>296</v>
+        <v>379</v>
       </c>
       <c r="B176" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="C176" t="s">
         <v>13</v>
       </c>
       <c r="E176" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H176" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I176" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="C177" t="s">
         <v>13</v>
       </c>
       <c r="E177" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -7018,16 +7018,16 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
       </c>
       <c r="E178" t="s">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="G178" t="s">
         <v>32</v>
@@ -7041,39 +7041,39 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="C179" t="s">
         <v>13</v>
       </c>
       <c r="E179" t="s">
-        <v>300</v>
+        <v>233</v>
       </c>
       <c r="G179" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H179" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I179" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B180" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C180" t="s">
         <v>13</v>
       </c>
       <c r="E180" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="G180" t="s">
         <v>32</v>
@@ -7087,16 +7087,16 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B181" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="C181" t="s">
         <v>13</v>
       </c>
       <c r="E181" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="G181" t="s">
         <v>32</v>
@@ -7110,16 +7110,16 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="B182" t="s">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="C182" t="s">
         <v>13</v>
       </c>
       <c r="E182" t="s">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="G182" t="s">
         <v>32</v>
@@ -7133,16 +7133,16 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="B183" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C183" t="s">
         <v>13</v>
       </c>
       <c r="E183" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="G183" t="s">
         <v>32</v>
@@ -7156,16 +7156,16 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B184" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="C184" t="s">
         <v>13</v>
       </c>
       <c r="E184" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -7179,16 +7179,16 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="B185" t="s">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="C185" t="s">
         <v>13</v>
       </c>
       <c r="E185" t="s">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="G185" t="s">
         <v>32</v>
@@ -7202,16 +7202,16 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B186" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
       </c>
       <c r="E186" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="G186" t="s">
         <v>32</v>
@@ -7225,16 +7225,16 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B187" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="C187" t="s">
         <v>13</v>
       </c>
       <c r="E187" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -7248,16 +7248,16 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B188" t="s">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="C188" t="s">
         <v>13</v>
       </c>
       <c r="E188" t="s">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="G188" t="s">
         <v>32</v>
@@ -7271,16 +7271,16 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B189" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="C189" t="s">
         <v>13</v>
       </c>
       <c r="E189" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="G189" t="s">
         <v>32</v>
@@ -7294,39 +7294,39 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B190" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
       </c>
       <c r="E190" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="G190" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H190" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="C191" t="s">
         <v>13</v>
       </c>
       <c r="E191" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="G191" t="s">
         <v>32</v>
@@ -7340,16 +7340,16 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
       </c>
       <c r="E192" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="G192" t="s">
         <v>32</v>
@@ -7363,16 +7363,16 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B193" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C193" t="s">
         <v>13</v>
       </c>
       <c r="E193" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="G193" t="s">
         <v>32</v>
@@ -7386,16 +7386,16 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="C194" t="s">
         <v>13</v>
       </c>
       <c r="E194" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="G194" t="s">
         <v>32</v>
@@ -7409,16 +7409,16 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="C195" t="s">
         <v>13</v>
       </c>
       <c r="E195" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="G195" t="s">
         <v>32</v>
@@ -7432,16 +7432,16 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="C196" t="s">
         <v>13</v>
       </c>
       <c r="E196" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="G196" t="s">
         <v>32</v>
@@ -7455,16 +7455,16 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="C197" t="s">
         <v>13</v>
       </c>
       <c r="E197" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="G197" t="s">
         <v>32</v>
@@ -7478,16 +7478,16 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B198" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="C198" t="s">
         <v>13</v>
       </c>
       <c r="E198" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="G198" t="s">
         <v>32</v>
@@ -7501,16 +7501,16 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B199" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
       </c>
       <c r="E199" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -7524,16 +7524,16 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
       </c>
       <c r="E200" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="G200" t="s">
         <v>32</v>
@@ -7547,39 +7547,39 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B201" t="s">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
       </c>
       <c r="E201" t="s">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H201" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I201" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B202" t="s">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
       </c>
       <c r="E202" t="s">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c r="G202" t="s">
         <v>32</v>
@@ -7593,16 +7593,16 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B203" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="C203" t="s">
         <v>13</v>
       </c>
       <c r="E203" t="s">
-        <v>53</v>
+        <v>255</v>
       </c>
       <c r="G203" t="s">
         <v>32</v>
@@ -7616,200 +7616,200 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B204" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="C204" t="s">
         <v>13</v>
       </c>
       <c r="E204" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="G204" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H204" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I204" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B205" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="C205" t="s">
         <v>13</v>
       </c>
       <c r="E205" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="G205" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H205" t="s">
         <v>23</v>
       </c>
       <c r="I205" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B206" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="C206" t="s">
         <v>13</v>
       </c>
       <c r="E206" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="G206" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H206" t="s">
         <v>23</v>
       </c>
       <c r="I206" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B207" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="C207" t="s">
         <v>13</v>
       </c>
       <c r="E207" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H207" t="s">
         <v>23</v>
       </c>
       <c r="I207" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B208" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="C208" t="s">
         <v>13</v>
       </c>
       <c r="E208" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="G208" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H208" t="s">
         <v>23</v>
       </c>
       <c r="I208" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B209" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="C209" t="s">
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="G209" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H209" t="s">
         <v>23</v>
       </c>
       <c r="I209" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B210" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="C210" t="s">
         <v>13</v>
       </c>
       <c r="E210" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="G210" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H210" t="s">
         <v>23</v>
       </c>
       <c r="I210" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B211" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="C211" t="s">
         <v>13</v>
       </c>
       <c r="E211" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H211" t="s">
         <v>23</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B212" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
       </c>
       <c r="E212" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="G212" t="s">
         <v>32</v>
@@ -7823,16 +7823,16 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B213" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="C213" t="s">
         <v>13</v>
       </c>
       <c r="E213" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -7846,16 +7846,16 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B214" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
       </c>
       <c r="E214" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="G214" t="s">
         <v>32</v>
@@ -7869,16 +7869,16 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B215" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
       </c>
       <c r="E215" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G215" t="s">
         <v>32</v>
@@ -7892,16 +7892,16 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B216" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C216" t="s">
         <v>13</v>
       </c>
       <c r="E216" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G216" t="s">
         <v>32</v>
@@ -7915,16 +7915,16 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B217" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C217" t="s">
         <v>13</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G217" t="s">
         <v>32</v>
@@ -7938,16 +7938,16 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B218" t="s">
-        <v>342</v>
+        <v>35</v>
       </c>
       <c r="C218" t="s">
         <v>13</v>
       </c>
       <c r="E218" t="s">
-        <v>342</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
         <v>32</v>
@@ -7961,16 +7961,16 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B219" t="s">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="C219" t="s">
         <v>13</v>
       </c>
       <c r="E219" t="s">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="G219" t="s">
         <v>32</v>
@@ -7984,16 +7984,16 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B220" t="s">
-        <v>346</v>
+        <v>39</v>
       </c>
       <c r="C220" t="s">
         <v>13</v>
       </c>
       <c r="E220" t="s">
-        <v>346</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
         <v>32</v>
@@ -8007,16 +8007,16 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B221" t="s">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="C221" t="s">
         <v>13</v>
       </c>
       <c r="E221" t="s">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="G221" t="s">
         <v>32</v>
@@ -8030,16 +8030,16 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B222" t="s">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="C222" t="s">
         <v>13</v>
       </c>
       <c r="E222" t="s">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="G222" t="s">
         <v>32</v>
@@ -8053,16 +8053,16 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B223" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C223" t="s">
         <v>13</v>
       </c>
       <c r="E223" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G223" t="s">
         <v>32</v>
@@ -8076,16 +8076,16 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B224" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C224" t="s">
         <v>13</v>
       </c>
       <c r="E224" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G224" t="s">
         <v>32</v>
@@ -8099,16 +8099,16 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B225" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C225" t="s">
         <v>13</v>
       </c>
       <c r="E225" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G225" t="s">
         <v>32</v>
@@ -8122,16 +8122,16 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B226" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
       </c>
       <c r="E226" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G226" t="s">
         <v>32</v>
@@ -8140,21 +8140,21 @@
         <v>23</v>
       </c>
       <c r="I226" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B227" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C227" t="s">
         <v>13</v>
       </c>
       <c r="E227" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G227" t="s">
         <v>32</v>
@@ -8168,16 +8168,16 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B228" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C228" t="s">
         <v>13</v>
       </c>
       <c r="E228" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G228" t="s">
         <v>32</v>
@@ -8191,16 +8191,16 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B229" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C229" t="s">
         <v>13</v>
       </c>
       <c r="E229" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G229" t="s">
         <v>32</v>
@@ -8214,16 +8214,16 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B230" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C230" t="s">
         <v>13</v>
       </c>
       <c r="E230" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G230" t="s">
         <v>32</v>
@@ -8237,16 +8237,16 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B231" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C231" t="s">
         <v>13</v>
       </c>
       <c r="E231" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -8260,16 +8260,16 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B232" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C232" t="s">
         <v>13</v>
       </c>
       <c r="E232" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G232" t="s">
         <v>32</v>
@@ -8283,16 +8283,16 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B233" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C233" t="s">
         <v>13</v>
       </c>
       <c r="E233" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G233" t="s">
         <v>32</v>
@@ -8306,16 +8306,16 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B234" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C234" t="s">
         <v>13</v>
       </c>
       <c r="E234" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G234" t="s">
         <v>32</v>
@@ -8329,16 +8329,16 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B235" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C235" t="s">
         <v>13</v>
       </c>
       <c r="E235" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G235" t="s">
         <v>32</v>
@@ -8352,62 +8352,62 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B236" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C236" t="s">
         <v>13</v>
       </c>
       <c r="E236" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G236" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H236" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I236" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B237" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="C237" t="s">
         <v>13</v>
       </c>
       <c r="E237" t="s">
-        <v>286</v>
+        <v>372</v>
       </c>
       <c r="G237" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H237" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I237" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B238" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="C238" t="s">
         <v>13</v>
       </c>
       <c r="E238" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="G238" t="s">
         <v>32</v>
@@ -8416,21 +8416,21 @@
         <v>23</v>
       </c>
       <c r="I238" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B239" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
       </c>
       <c r="E239" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="G239" t="s">
         <v>32</v>
@@ -8444,16 +8444,16 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B240" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C240" t="s">
         <v>13</v>
       </c>
       <c r="E240" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G240" t="s">
         <v>32</v>
@@ -8467,16 +8467,16 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B241" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C241" t="s">
         <v>13</v>
       </c>
       <c r="E241" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G241" t="s">
         <v>32</v>
@@ -8490,16 +8490,16 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B242" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C242" t="s">
         <v>13</v>
       </c>
       <c r="E242" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G242" t="s">
         <v>32</v>
@@ -8513,16 +8513,16 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B243" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C243" t="s">
         <v>13</v>
       </c>
       <c r="E243" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G243" t="s">
         <v>32</v>
@@ -8536,16 +8536,16 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B244" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C244" t="s">
         <v>13</v>
       </c>
       <c r="E244" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G244" t="s">
         <v>32</v>
@@ -8559,16 +8559,16 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B245" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C245" t="s">
         <v>13</v>
       </c>
       <c r="E245" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G245" t="s">
         <v>32</v>
@@ -8577,7 +8577,7 @@
         <v>23</v>
       </c>
       <c r="I245" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -8673,6 +8673,11 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K249">
+    <sortCondition ref="K2:K249"/>
+    <sortCondition ref="I2:I249"/>
+    <sortCondition ref="F2:F249"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assignedWorkbook.xlsx
+++ b/assignedWorkbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\oberon\Oberon\Midterm-Group-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Midterm-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{561D15D6-C578-4771-A4F6-269523E5EABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486AB028-85CE-478F-A246-A9FA7D517E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{59D45EA8-9A24-4978-88A6-9F8F127519C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="391">
   <si>
     <t>ERwin Property Ids</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>oliver</t>
   </si>
   <si>
     <t>1075838981::362</t>
@@ -1565,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726F3353-18B9-45AF-B3BB-53CCC1F4D5FE}">
   <dimension ref="A1:K249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I128" sqref="I128"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,19 +1617,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" t="s">
         <v>234</v>
       </c>
-      <c r="B2" t="s">
-        <v>235</v>
-      </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -1647,24 +1644,24 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" t="s">
-        <v>237</v>
-      </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -1679,24 +1676,24 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" t="s">
         <v>267</v>
       </c>
-      <c r="B4" t="s">
-        <v>268</v>
-      </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -1711,24 +1708,24 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" t="s">
         <v>258</v>
       </c>
-      <c r="B5" t="s">
-        <v>259</v>
-      </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1743,24 +1740,24 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1775,24 +1772,24 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -1807,24 +1804,24 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -1839,24 +1836,24 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1871,24 +1868,24 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1903,24 +1900,24 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -1935,24 +1932,24 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -1967,24 +1964,24 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1999,24 +1996,24 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" t="s">
         <v>238</v>
       </c>
-      <c r="B14" t="s">
-        <v>239</v>
-      </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -2031,24 +2028,24 @@
         <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -2063,120 +2060,120 @@
         <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
         <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -2191,24 +2188,24 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F20" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G20" t="s">
         <v>32</v>
@@ -2223,24 +2220,24 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
         <v>32</v>
@@ -2255,24 +2252,24 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -2287,24 +2284,24 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F23" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -2319,24 +2316,24 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2351,24 +2348,24 @@
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -2383,24 +2380,24 @@
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -2415,88 +2412,88 @@
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="F27" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s">
         <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="F28" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
         <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J28" t="s">
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -2511,24 +2508,24 @@
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="F30" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -2543,24 +2540,24 @@
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -2569,30 +2566,30 @@
         <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -2601,126 +2598,126 @@
         <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F33" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
         <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J33" t="s">
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F34" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
         <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
         <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J35" t="s">
         <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F36" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -2735,24 +2732,24 @@
         <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F37" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -2767,24 +2764,24 @@
         <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F38" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -2799,24 +2796,24 @@
         <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F39" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -2831,24 +2828,24 @@
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F40" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -2863,24 +2860,24 @@
         <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F41" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G41" t="s">
         <v>32</v>
@@ -2895,24 +2892,24 @@
         <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="F42" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -2927,24 +2924,24 @@
         <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="F43" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -2959,24 +2956,24 @@
         <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F44" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -2991,24 +2988,24 @@
         <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="B45" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="F45" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -3023,24 +3020,24 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F46" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -3055,24 +3052,24 @@
         <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="F47" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -3087,24 +3084,24 @@
         <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="F48" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -3119,24 +3116,24 @@
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="F49" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="G49" t="s">
         <v>32</v>
@@ -3151,152 +3148,152 @@
         <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" t="s">
+        <v>180</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" t="s">
         <v>178</v>
-      </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" t="s">
-        <v>178</v>
-      </c>
-      <c r="F50" t="s">
-        <v>178</v>
-      </c>
-      <c r="G50" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" t="s">
-        <v>33</v>
-      </c>
-      <c r="J50" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" t="s">
+        <v>219</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
         <v>178</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s">
-        <v>178</v>
-      </c>
-      <c r="F51" t="s">
-        <v>178</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" t="s">
-        <v>33</v>
-      </c>
-      <c r="J51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="B52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>225</v>
+      </c>
+      <c r="F52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52" t="s">
+        <v>32</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
         <v>178</v>
-      </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s">
-        <v>178</v>
-      </c>
-      <c r="F52" t="s">
-        <v>178</v>
-      </c>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" t="s">
-        <v>23</v>
-      </c>
-      <c r="I52" t="s">
-        <v>33</v>
-      </c>
-      <c r="J52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" t="s">
+        <v>211</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" t="s">
         <v>178</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" t="s">
-        <v>178</v>
-      </c>
-      <c r="F53" t="s">
-        <v>178</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53" t="s">
-        <v>33</v>
-      </c>
-      <c r="J53" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F54" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -3311,24 +3308,24 @@
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="F55" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="G55" t="s">
         <v>32</v>
@@ -3337,836 +3334,836 @@
         <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="F56" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H56" t="s">
         <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J56" t="s">
         <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="F57" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H57" t="s">
         <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="F58" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H58" t="s">
         <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="F59" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H59" t="s">
         <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J59" t="s">
         <v>17</v>
       </c>
       <c r="K59" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="F60" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H60" t="s">
         <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="F61" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H61" t="s">
         <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
       </c>
       <c r="K61" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="F62" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H62" t="s">
         <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J62" t="s">
         <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H63" t="s">
         <v>23</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J63" t="s">
         <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="F64" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H64" t="s">
         <v>23</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J64" t="s">
         <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="F65" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H65" t="s">
         <v>23</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="F66" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H66" t="s">
         <v>23</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="F67" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="F68" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H68" t="s">
         <v>23</v>
       </c>
       <c r="I68" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H69" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" t="s">
+        <v>23</v>
+      </c>
+      <c r="I70" t="s">
+        <v>59</v>
+      </c>
+      <c r="J70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" t="s">
         <v>113</v>
-      </c>
-      <c r="C70" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" t="s">
-        <v>113</v>
-      </c>
-      <c r="F70" t="s">
-        <v>113</v>
-      </c>
-      <c r="G70" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" t="s">
-        <v>47</v>
-      </c>
-      <c r="J70" t="s">
-        <v>17</v>
-      </c>
-      <c r="K70" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>155</v>
+      </c>
+      <c r="F71" t="s">
+        <v>155</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" t="s">
         <v>113</v>
-      </c>
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" t="s">
-        <v>113</v>
-      </c>
-      <c r="F71" t="s">
-        <v>113</v>
-      </c>
-      <c r="G71" t="s">
-        <v>46</v>
-      </c>
-      <c r="H71" t="s">
-        <v>23</v>
-      </c>
-      <c r="I71" t="s">
-        <v>47</v>
-      </c>
-      <c r="J71" t="s">
-        <v>17</v>
-      </c>
-      <c r="K71" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="B72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72" t="s">
+        <v>155</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" t="s">
         <v>113</v>
-      </c>
-      <c r="C72" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" t="s">
-        <v>113</v>
-      </c>
-      <c r="F72" t="s">
-        <v>113</v>
-      </c>
-      <c r="G72" t="s">
-        <v>46</v>
-      </c>
-      <c r="H72" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" t="s">
-        <v>47</v>
-      </c>
-      <c r="J72" t="s">
-        <v>17</v>
-      </c>
-      <c r="K72" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" t="s">
         <v>113</v>
-      </c>
-      <c r="C73" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" t="s">
-        <v>113</v>
-      </c>
-      <c r="F73" t="s">
-        <v>113</v>
-      </c>
-      <c r="G73" t="s">
-        <v>46</v>
-      </c>
-      <c r="H73" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" t="s">
-        <v>47</v>
-      </c>
-      <c r="J73" t="s">
-        <v>17</v>
-      </c>
-      <c r="K73" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" t="s">
         <v>113</v>
-      </c>
-      <c r="C74" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" t="s">
-        <v>113</v>
-      </c>
-      <c r="F74" t="s">
-        <v>113</v>
-      </c>
-      <c r="G74" t="s">
-        <v>46</v>
-      </c>
-      <c r="H74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" t="s">
-        <v>47</v>
-      </c>
-      <c r="J74" t="s">
-        <v>17</v>
-      </c>
-      <c r="K74" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>155</v>
+      </c>
+      <c r="F75" t="s">
+        <v>155</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" t="s">
         <v>113</v>
-      </c>
-      <c r="C75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" t="s">
-        <v>113</v>
-      </c>
-      <c r="F75" t="s">
-        <v>113</v>
-      </c>
-      <c r="G75" t="s">
-        <v>46</v>
-      </c>
-      <c r="H75" t="s">
-        <v>23</v>
-      </c>
-      <c r="I75" t="s">
-        <v>47</v>
-      </c>
-      <c r="J75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K75" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F76" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
         <v>23</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J76" t="s">
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J77" t="s">
         <v>17</v>
       </c>
       <c r="K77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="F78" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J78" t="s">
         <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J79" t="s">
         <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F80" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J80" t="s">
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F81" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G81" t="s">
         <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I81" t="s">
         <v>47</v>
@@ -4175,24 +4172,24 @@
         <v>17</v>
       </c>
       <c r="K81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F82" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -4207,24 +4204,24 @@
         <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F83" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G83" t="s">
         <v>46</v>
@@ -4239,30 +4236,30 @@
         <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F84" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G84" t="s">
         <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
         <v>47</v>
@@ -4271,30 +4268,30 @@
         <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F85" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G85" t="s">
         <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
         <v>47</v>
@@ -4303,24 +4300,24 @@
         <v>17</v>
       </c>
       <c r="K85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F86" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G86" t="s">
         <v>46</v>
@@ -4335,30 +4332,30 @@
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F87" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="G87" t="s">
         <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
         <v>47</v>
@@ -4367,30 +4364,30 @@
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F88" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="G88" t="s">
         <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I88" t="s">
         <v>47</v>
@@ -4399,30 +4396,30 @@
         <v>17</v>
       </c>
       <c r="K88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="F89" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="G89" t="s">
         <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
         <v>47</v>
@@ -4431,30 +4428,30 @@
         <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="F90" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I90" t="s">
         <v>47</v>
@@ -4463,24 +4460,24 @@
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F91" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G91" t="s">
         <v>46</v>
@@ -4495,24 +4492,24 @@
         <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="F92" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s">
         <v>46</v>
@@ -4527,24 +4524,24 @@
         <v>17</v>
       </c>
       <c r="K92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="G93" t="s">
         <v>46</v>
@@ -4559,24 +4556,24 @@
         <v>17</v>
       </c>
       <c r="K93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G94" t="s">
         <v>46</v>
@@ -4591,30 +4588,30 @@
         <v>17</v>
       </c>
       <c r="K94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="F95" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="G95" t="s">
         <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
         <v>47</v>
@@ -4623,30 +4620,30 @@
         <v>17</v>
       </c>
       <c r="K95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="F96" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="G96" t="s">
         <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
         <v>47</v>
@@ -4655,30 +4652,30 @@
         <v>17</v>
       </c>
       <c r="K96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="F97" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="G97" t="s">
         <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
         <v>47</v>
@@ -4687,30 +4684,30 @@
         <v>17</v>
       </c>
       <c r="K97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B98" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F98" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G98" t="s">
         <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
         <v>47</v>
@@ -4719,30 +4716,30 @@
         <v>17</v>
       </c>
       <c r="K98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F99" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G99" t="s">
         <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
         <v>47</v>
@@ -4751,24 +4748,24 @@
         <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="F100" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="G100" t="s">
         <v>46</v>
@@ -4783,24 +4780,24 @@
         <v>17</v>
       </c>
       <c r="K100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="F101" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
@@ -4815,24 +4812,24 @@
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="F102" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="G102" t="s">
         <v>46</v>
@@ -4847,152 +4844,152 @@
         <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F103" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
         <v>23</v>
       </c>
       <c r="I103" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J103" t="s">
         <v>17</v>
       </c>
       <c r="K103" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F104" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
         <v>23</v>
       </c>
       <c r="I104" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F105" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="G105" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
         <v>23</v>
       </c>
       <c r="I105" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J105" t="s">
         <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="B106" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="F106" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J106" t="s">
         <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="F107" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="G107" t="s">
         <v>46</v>
@@ -5007,30 +5004,30 @@
         <v>17</v>
       </c>
       <c r="K107" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="B108" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="F108" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="G108" t="s">
         <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
         <v>47</v>
@@ -5039,24 +5036,24 @@
         <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B109" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="F109" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="G109" t="s">
         <v>46</v>
@@ -5071,30 +5068,30 @@
         <v>17</v>
       </c>
       <c r="K109" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="F110" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="G110" t="s">
         <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I110" t="s">
         <v>47</v>
@@ -5103,30 +5100,30 @@
         <v>17</v>
       </c>
       <c r="K110" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F111" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G111" t="s">
         <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
         <v>47</v>
@@ -5135,24 +5132,24 @@
         <v>17</v>
       </c>
       <c r="K111" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>71</v>
+      </c>
+      <c r="B112" t="s">
         <v>72</v>
       </c>
-      <c r="B112" t="s">
-        <v>73</v>
-      </c>
       <c r="C112" t="s">
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G112" t="s">
         <v>46</v>
@@ -5167,24 +5164,24 @@
         <v>17</v>
       </c>
       <c r="K112" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G113" t="s">
         <v>46</v>
@@ -5199,312 +5196,312 @@
         <v>17</v>
       </c>
       <c r="K113" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="B114" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="F114" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H114" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J114" t="s">
         <v>17</v>
       </c>
       <c r="K114" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="B115" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="F115" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H115" t="s">
         <v>23</v>
       </c>
       <c r="I115" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J115" t="s">
         <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="B116" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="F116" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H116" t="s">
         <v>23</v>
       </c>
       <c r="I116" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J116" t="s">
         <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="B117" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
       </c>
       <c r="E117" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="F117" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s">
         <v>23</v>
       </c>
       <c r="I117" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J117" t="s">
         <v>17</v>
       </c>
       <c r="K117" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="B118" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="F118" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H118" t="s">
         <v>23</v>
       </c>
       <c r="I118" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J118" t="s">
         <v>17</v>
       </c>
       <c r="K118" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="B119" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="F119" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H119" t="s">
         <v>23</v>
       </c>
       <c r="I119" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J119" t="s">
         <v>17</v>
       </c>
       <c r="K119" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="B120" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="F120" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H120" t="s">
         <v>23</v>
       </c>
       <c r="I120" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J120" t="s">
         <v>17</v>
       </c>
       <c r="K120" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="B121" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="F121" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H121" t="s">
         <v>23</v>
       </c>
       <c r="I121" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J121" t="s">
         <v>17</v>
       </c>
       <c r="K121" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="F122" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H122" t="s">
         <v>23</v>
       </c>
       <c r="I122" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J122" t="s">
         <v>17</v>
       </c>
       <c r="K122" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="B123" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="G123" t="s">
         <v>32</v>
@@ -5519,24 +5516,24 @@
         <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B124" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F124" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G124" t="s">
         <v>32</v>
@@ -5545,135 +5542,135 @@
         <v>23</v>
       </c>
       <c r="I124" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="J124" t="s">
         <v>17</v>
       </c>
       <c r="K124" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
         <v>23</v>
       </c>
       <c r="I125" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J125" t="s">
         <v>17</v>
       </c>
       <c r="K125" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B126" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="F126" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J126" t="s">
         <v>17</v>
       </c>
       <c r="K126" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B127" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="F127" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
         <v>23</v>
       </c>
       <c r="I127" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J127" t="s">
         <v>17</v>
       </c>
       <c r="K127" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B128" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F128" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
         <v>23</v>
       </c>
       <c r="I128" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="J128" t="s">
         <v>17</v>
@@ -5684,19 +5681,19 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G129" t="s">
         <v>14</v>
@@ -5716,19 +5713,19 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G130" t="s">
         <v>14</v>
@@ -5748,19 +5745,19 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G131" t="s">
         <v>14</v>
@@ -5780,19 +5777,19 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C132" t="s">
         <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
@@ -5812,19 +5809,19 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B133" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C133" t="s">
         <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F133" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G133" t="s">
         <v>14</v>
@@ -5844,28 +5841,28 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G134" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H134" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I134" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J134" t="s">
         <v>17</v>
@@ -5876,28 +5873,28 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C135" t="s">
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H135" t="s">
         <v>23</v>
       </c>
       <c r="I135" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J135" t="s">
         <v>17</v>
@@ -5908,28 +5905,28 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F136" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G136" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H136" t="s">
         <v>23</v>
       </c>
       <c r="I136" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J136" t="s">
         <v>17</v>
@@ -5940,28 +5937,28 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B137" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F137" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G137" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H137" t="s">
         <v>23</v>
       </c>
       <c r="I137" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J137" t="s">
         <v>17</v>
@@ -5972,28 +5969,28 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H138" t="s">
         <v>23</v>
       </c>
       <c r="I138" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J138" t="s">
         <v>17</v>
@@ -6004,28 +6001,28 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B139" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C139" t="s">
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H139" t="s">
         <v>23</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J139" t="s">
         <v>17</v>
@@ -6420,16 +6417,16 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B152" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
       </c>
       <c r="E152" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G152" t="s">
         <v>32</v>
@@ -6443,16 +6440,16 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>356</v>
+      </c>
+      <c r="B153" t="s">
         <v>357</v>
       </c>
-      <c r="B153" t="s">
-        <v>358</v>
-      </c>
       <c r="C153" t="s">
         <v>13</v>
       </c>
       <c r="E153" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G153" t="s">
         <v>32</v>
@@ -6466,7 +6463,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B154" t="s">
         <v>58</v>
@@ -6489,16 +6486,16 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C155" t="s">
         <v>13</v>
       </c>
       <c r="E155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G155" t="s">
         <v>32</v>
@@ -6512,16 +6509,16 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B156" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G156" t="s">
         <v>14</v>
@@ -6535,16 +6532,16 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
       </c>
       <c r="E157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G157" t="s">
         <v>14</v>
@@ -6558,16 +6555,16 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B158" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
       </c>
       <c r="E158" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G158" t="s">
         <v>14</v>
@@ -6581,16 +6578,16 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B159" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C159" t="s">
         <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G159" t="s">
         <v>14</v>
@@ -6604,16 +6601,16 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B160" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C160" t="s">
         <v>13</v>
       </c>
       <c r="E160" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G160" t="s">
         <v>14</v>
@@ -6627,16 +6624,16 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>270</v>
+      </c>
+      <c r="B161" t="s">
         <v>271</v>
       </c>
-      <c r="B161" t="s">
-        <v>272</v>
-      </c>
       <c r="C161" t="s">
         <v>13</v>
       </c>
       <c r="E161" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G161" t="s">
         <v>46</v>
@@ -6650,16 +6647,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B162" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C162" t="s">
         <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G162" t="s">
         <v>46</v>
@@ -6673,16 +6670,16 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>284</v>
+      </c>
+      <c r="B163" t="s">
         <v>285</v>
       </c>
-      <c r="B163" t="s">
-        <v>286</v>
-      </c>
       <c r="C163" t="s">
         <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -6696,16 +6693,16 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B164" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G164" t="s">
         <v>46</v>
@@ -6719,16 +6716,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B165" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C165" t="s">
         <v>13</v>
       </c>
       <c r="E165" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G165" t="s">
         <v>46</v>
@@ -6742,7 +6739,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B166" t="s">
         <v>45</v>
@@ -6765,16 +6762,16 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>298</v>
+      </c>
+      <c r="B167" t="s">
         <v>299</v>
       </c>
-      <c r="B167" t="s">
-        <v>300</v>
-      </c>
       <c r="C167" t="s">
         <v>13</v>
       </c>
       <c r="E167" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G167" t="s">
         <v>46</v>
@@ -6788,16 +6785,16 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>310</v>
+      </c>
+      <c r="B168" t="s">
         <v>311</v>
       </c>
-      <c r="B168" t="s">
-        <v>312</v>
-      </c>
       <c r="C168" t="s">
         <v>13</v>
       </c>
       <c r="E168" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G168" t="s">
         <v>46</v>
@@ -6811,16 +6808,16 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>322</v>
+      </c>
+      <c r="B169" t="s">
         <v>323</v>
       </c>
-      <c r="B169" t="s">
-        <v>324</v>
-      </c>
       <c r="C169" t="s">
         <v>13</v>
       </c>
       <c r="E169" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G169" t="s">
         <v>46</v>
@@ -6834,16 +6831,16 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B170" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C170" t="s">
         <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G170" t="s">
         <v>46</v>
@@ -6857,16 +6854,16 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B171" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C171" t="s">
         <v>13</v>
       </c>
       <c r="E171" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G171" t="s">
         <v>46</v>
@@ -6880,16 +6877,16 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B172" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
       </c>
       <c r="E172" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G172" t="s">
         <v>46</v>
@@ -6903,16 +6900,16 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B173" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
       </c>
       <c r="E173" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G173" t="s">
         <v>46</v>
@@ -6926,16 +6923,16 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B174" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
       </c>
       <c r="E174" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G174" t="s">
         <v>46</v>
@@ -6949,16 +6946,16 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>376</v>
+      </c>
+      <c r="B175" t="s">
         <v>377</v>
       </c>
-      <c r="B175" t="s">
-        <v>378</v>
-      </c>
       <c r="C175" t="s">
         <v>13</v>
       </c>
       <c r="E175" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
@@ -6972,16 +6969,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B176" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C176" t="s">
         <v>13</v>
       </c>
       <c r="E176" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G176" t="s">
         <v>46</v>
@@ -6995,16 +6992,16 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B177" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C177" t="s">
         <v>13</v>
       </c>
       <c r="E177" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -7018,16 +7015,16 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B178" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
       </c>
       <c r="E178" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G178" t="s">
         <v>32</v>
@@ -7041,16 +7038,16 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B179" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C179" t="s">
         <v>13</v>
       </c>
       <c r="E179" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G179" t="s">
         <v>32</v>
@@ -7064,16 +7061,16 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B180" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C180" t="s">
         <v>13</v>
       </c>
       <c r="E180" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G180" t="s">
         <v>32</v>
@@ -7087,16 +7084,16 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B181" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C181" t="s">
         <v>13</v>
       </c>
       <c r="E181" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G181" t="s">
         <v>32</v>
@@ -7110,16 +7107,16 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C182" t="s">
         <v>13</v>
       </c>
       <c r="E182" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G182" t="s">
         <v>32</v>
@@ -7133,16 +7130,16 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C183" t="s">
         <v>13</v>
       </c>
       <c r="E183" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G183" t="s">
         <v>32</v>
@@ -7156,16 +7153,16 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C184" t="s">
         <v>13</v>
       </c>
       <c r="E184" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -7179,16 +7176,16 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C185" t="s">
         <v>13</v>
       </c>
       <c r="E185" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G185" t="s">
         <v>32</v>
@@ -7202,16 +7199,16 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
       </c>
       <c r="E186" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G186" t="s">
         <v>32</v>
@@ -7225,16 +7222,16 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B187" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C187" t="s">
         <v>13</v>
       </c>
       <c r="E187" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -7248,7 +7245,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B188" t="s">
         <v>55</v>
@@ -7271,16 +7268,16 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B189" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C189" t="s">
         <v>13</v>
       </c>
       <c r="E189" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G189" t="s">
         <v>32</v>
@@ -7294,16 +7291,16 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B190" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
       </c>
       <c r="E190" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G190" t="s">
         <v>32</v>
@@ -7317,16 +7314,16 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B191" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C191" t="s">
         <v>13</v>
       </c>
       <c r="E191" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G191" t="s">
         <v>32</v>
@@ -7340,16 +7337,16 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B192" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
       </c>
       <c r="E192" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G192" t="s">
         <v>32</v>
@@ -7363,16 +7360,16 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B193" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C193" t="s">
         <v>13</v>
       </c>
       <c r="E193" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G193" t="s">
         <v>32</v>
@@ -7386,16 +7383,16 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B194" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C194" t="s">
         <v>13</v>
       </c>
       <c r="E194" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G194" t="s">
         <v>32</v>
@@ -7409,16 +7406,16 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B195" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C195" t="s">
         <v>13</v>
       </c>
       <c r="E195" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G195" t="s">
         <v>32</v>
@@ -7432,16 +7429,16 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B196" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C196" t="s">
         <v>13</v>
       </c>
       <c r="E196" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G196" t="s">
         <v>32</v>
@@ -7455,16 +7452,16 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B197" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C197" t="s">
         <v>13</v>
       </c>
       <c r="E197" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G197" t="s">
         <v>32</v>
@@ -7478,7 +7475,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B198" t="s">
         <v>61</v>
@@ -7501,16 +7498,16 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
       </c>
       <c r="E199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -7524,16 +7521,16 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B200" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
       </c>
       <c r="E200" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G200" t="s">
         <v>32</v>
@@ -7547,16 +7544,16 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B201" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
       </c>
       <c r="E201" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G201" t="s">
         <v>32</v>
@@ -7570,16 +7567,16 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B202" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
       </c>
       <c r="E202" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G202" t="s">
         <v>32</v>
@@ -7593,16 +7590,16 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B203" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C203" t="s">
         <v>13</v>
       </c>
       <c r="E203" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G203" t="s">
         <v>32</v>
@@ -7616,16 +7613,16 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B204" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C204" t="s">
         <v>13</v>
       </c>
       <c r="E204" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G204" t="s">
         <v>32</v>
@@ -7639,16 +7636,16 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B205" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C205" t="s">
         <v>13</v>
       </c>
       <c r="E205" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G205" t="s">
         <v>32</v>
@@ -7662,16 +7659,16 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B206" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C206" t="s">
         <v>13</v>
       </c>
       <c r="E206" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G206" t="s">
         <v>32</v>
@@ -7685,16 +7682,16 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B207" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C207" t="s">
         <v>13</v>
       </c>
       <c r="E207" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G207" t="s">
         <v>32</v>
@@ -7708,16 +7705,16 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B208" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C208" t="s">
         <v>13</v>
       </c>
       <c r="E208" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G208" t="s">
         <v>32</v>
@@ -7731,16 +7728,16 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B209" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C209" t="s">
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G209" t="s">
         <v>32</v>
@@ -7754,16 +7751,16 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B210" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C210" t="s">
         <v>13</v>
       </c>
       <c r="E210" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G210" t="s">
         <v>32</v>
@@ -7777,16 +7774,16 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B211" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C211" t="s">
         <v>13</v>
       </c>
       <c r="E211" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G211" t="s">
         <v>32</v>
@@ -7800,16 +7797,16 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B212" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
       </c>
       <c r="E212" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G212" t="s">
         <v>32</v>
@@ -7823,16 +7820,16 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B213" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C213" t="s">
         <v>13</v>
       </c>
       <c r="E213" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -7846,16 +7843,16 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B214" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
       </c>
       <c r="E214" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G214" t="s">
         <v>32</v>
@@ -7869,7 +7866,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B215" t="s">
         <v>51</v>
@@ -7892,7 +7889,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B216" t="s">
         <v>53</v>
@@ -7915,7 +7912,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B217" t="s">
         <v>31</v>
@@ -7938,7 +7935,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B218" t="s">
         <v>35</v>
@@ -7961,7 +7958,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B219" t="s">
         <v>37</v>
@@ -7984,7 +7981,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B220" t="s">
         <v>39</v>
@@ -8007,7 +8004,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B221" t="s">
         <v>41</v>
@@ -8030,7 +8027,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B222" t="s">
         <v>43</v>
@@ -8053,16 +8050,16 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>340</v>
+      </c>
+      <c r="B223" t="s">
         <v>341</v>
       </c>
-      <c r="B223" t="s">
-        <v>342</v>
-      </c>
       <c r="C223" t="s">
         <v>13</v>
       </c>
       <c r="E223" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G223" t="s">
         <v>32</v>
@@ -8076,16 +8073,16 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>342</v>
+      </c>
+      <c r="B224" t="s">
         <v>343</v>
       </c>
-      <c r="B224" t="s">
-        <v>344</v>
-      </c>
       <c r="C224" t="s">
         <v>13</v>
       </c>
       <c r="E224" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G224" t="s">
         <v>32</v>
@@ -8099,16 +8096,16 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>344</v>
+      </c>
+      <c r="B225" t="s">
         <v>345</v>
       </c>
-      <c r="B225" t="s">
-        <v>346</v>
-      </c>
       <c r="C225" t="s">
         <v>13</v>
       </c>
       <c r="E225" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G225" t="s">
         <v>32</v>
@@ -8122,16 +8119,16 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>346</v>
+      </c>
+      <c r="B226" t="s">
         <v>347</v>
       </c>
-      <c r="B226" t="s">
-        <v>348</v>
-      </c>
       <c r="C226" t="s">
         <v>13</v>
       </c>
       <c r="E226" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G226" t="s">
         <v>32</v>
@@ -8145,16 +8142,16 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>348</v>
+      </c>
+      <c r="B227" t="s">
         <v>349</v>
       </c>
-      <c r="B227" t="s">
-        <v>350</v>
-      </c>
       <c r="C227" t="s">
         <v>13</v>
       </c>
       <c r="E227" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G227" t="s">
         <v>32</v>
@@ -8168,16 +8165,16 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>350</v>
+      </c>
+      <c r="B228" t="s">
         <v>351</v>
       </c>
-      <c r="B228" t="s">
-        <v>352</v>
-      </c>
       <c r="C228" t="s">
         <v>13</v>
       </c>
       <c r="E228" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G228" t="s">
         <v>32</v>
@@ -8191,16 +8188,16 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>352</v>
+      </c>
+      <c r="B229" t="s">
         <v>353</v>
       </c>
-      <c r="B229" t="s">
-        <v>354</v>
-      </c>
       <c r="C229" t="s">
         <v>13</v>
       </c>
       <c r="E229" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G229" t="s">
         <v>32</v>
@@ -8214,16 +8211,16 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>354</v>
+      </c>
+      <c r="B230" t="s">
         <v>355</v>
       </c>
-      <c r="B230" t="s">
-        <v>356</v>
-      </c>
       <c r="C230" t="s">
         <v>13</v>
       </c>
       <c r="E230" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G230" t="s">
         <v>32</v>
@@ -8237,16 +8234,16 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>358</v>
+      </c>
+      <c r="B231" t="s">
         <v>359</v>
       </c>
-      <c r="B231" t="s">
-        <v>360</v>
-      </c>
       <c r="C231" t="s">
         <v>13</v>
       </c>
       <c r="E231" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -8260,16 +8257,16 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>360</v>
+      </c>
+      <c r="B232" t="s">
         <v>361</v>
       </c>
-      <c r="B232" t="s">
-        <v>362</v>
-      </c>
       <c r="C232" t="s">
         <v>13</v>
       </c>
       <c r="E232" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G232" t="s">
         <v>32</v>
@@ -8283,16 +8280,16 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>362</v>
+      </c>
+      <c r="B233" t="s">
         <v>363</v>
       </c>
-      <c r="B233" t="s">
-        <v>364</v>
-      </c>
       <c r="C233" t="s">
         <v>13</v>
       </c>
       <c r="E233" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G233" t="s">
         <v>32</v>
@@ -8306,16 +8303,16 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>364</v>
+      </c>
+      <c r="B234" t="s">
         <v>365</v>
       </c>
-      <c r="B234" t="s">
-        <v>366</v>
-      </c>
       <c r="C234" t="s">
         <v>13</v>
       </c>
       <c r="E234" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G234" t="s">
         <v>32</v>
@@ -8329,16 +8326,16 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>366</v>
+      </c>
+      <c r="B235" t="s">
         <v>367</v>
       </c>
-      <c r="B235" t="s">
-        <v>368</v>
-      </c>
       <c r="C235" t="s">
         <v>13</v>
       </c>
       <c r="E235" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G235" t="s">
         <v>32</v>
@@ -8352,16 +8349,16 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>368</v>
+      </c>
+      <c r="B236" t="s">
         <v>369</v>
       </c>
-      <c r="B236" t="s">
-        <v>370</v>
-      </c>
       <c r="C236" t="s">
         <v>13</v>
       </c>
       <c r="E236" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G236" t="s">
         <v>32</v>
@@ -8375,16 +8372,16 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>370</v>
+      </c>
+      <c r="B237" t="s">
         <v>371</v>
       </c>
-      <c r="B237" t="s">
-        <v>372</v>
-      </c>
       <c r="C237" t="s">
         <v>13</v>
       </c>
       <c r="E237" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G237" t="s">
         <v>32</v>
@@ -8398,16 +8395,16 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>372</v>
+      </c>
+      <c r="B238" t="s">
         <v>373</v>
       </c>
-      <c r="B238" t="s">
-        <v>374</v>
-      </c>
       <c r="C238" t="s">
         <v>13</v>
       </c>
       <c r="E238" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G238" t="s">
         <v>32</v>
@@ -8421,16 +8418,16 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>374</v>
+      </c>
+      <c r="B239" t="s">
         <v>375</v>
       </c>
-      <c r="B239" t="s">
-        <v>376</v>
-      </c>
       <c r="C239" t="s">
         <v>13</v>
       </c>
       <c r="E239" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G239" t="s">
         <v>32</v>
@@ -8444,16 +8441,16 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B240" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C240" t="s">
         <v>13</v>
       </c>
       <c r="E240" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G240" t="s">
         <v>32</v>
@@ -8467,16 +8464,16 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B241" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C241" t="s">
         <v>13</v>
       </c>
       <c r="E241" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G241" t="s">
         <v>32</v>
@@ -8490,16 +8487,16 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B242" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C242" t="s">
         <v>13</v>
       </c>
       <c r="E242" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G242" t="s">
         <v>32</v>
@@ -8513,16 +8510,16 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B243" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C243" t="s">
         <v>13</v>
       </c>
       <c r="E243" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G243" t="s">
         <v>32</v>
@@ -8536,16 +8533,16 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B244" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C244" t="s">
         <v>13</v>
       </c>
       <c r="E244" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G244" t="s">
         <v>32</v>
@@ -8559,16 +8556,16 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B245" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C245" t="s">
         <v>13</v>
       </c>
       <c r="E245" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G245" t="s">
         <v>32</v>
@@ -8582,16 +8579,16 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B246" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C246" t="s">
         <v>13</v>
       </c>
       <c r="E246" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G246" t="s">
         <v>32</v>
@@ -8605,16 +8602,16 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B247" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C247" t="s">
         <v>13</v>
       </c>
       <c r="E247" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G247" t="s">
         <v>32</v>
@@ -8628,16 +8625,16 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B248" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C248" t="s">
         <v>13</v>
       </c>
       <c r="E248" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G248" t="s">
         <v>32</v>
@@ -8651,16 +8648,16 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B249" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
       </c>
       <c r="E249" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G249" t="s">
         <v>32</v>
@@ -8673,10 +8670,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K249">
-    <sortCondition ref="K2:K249"/>
-    <sortCondition ref="I2:I249"/>
-    <sortCondition ref="F2:F249"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K249">
+    <sortCondition ref="K1:K249"/>
+    <sortCondition ref="I1:I249"/>
+    <sortCondition ref="F1:F249"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assignedWorkbook.xlsx
+++ b/assignedWorkbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Midterm-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486AB028-85CE-478F-A246-A9FA7D517E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1253BC-021A-4906-8719-6F05F03F1890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{59D45EA8-9A24-4978-88A6-9F8F127519C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="392">
   <si>
     <t>ERwin Property Ids</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>oliver</t>
   </si>
   <si>
     <t>1075838981::362</t>
@@ -1562,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726F3353-18B9-45AF-B3BB-53CCC1F4D5FE}">
   <dimension ref="A1:K249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,19 +1620,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -1644,24 +1647,24 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -1676,24 +1679,24 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -1708,24 +1711,24 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1740,24 +1743,24 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" t="s">
         <v>259</v>
       </c>
-      <c r="B6" t="s">
-        <v>258</v>
-      </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1772,24 +1775,24 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -1804,24 +1807,24 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -1836,24 +1839,24 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1868,24 +1871,24 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1900,24 +1903,24 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -1932,24 +1935,24 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -1964,24 +1967,24 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1996,24 +1999,24 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -2028,24 +2031,24 @@
         <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -2060,120 +2063,120 @@
         <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
         <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F17" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>247</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
         <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -2188,24 +2191,24 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="G20" t="s">
         <v>32</v>
@@ -2220,24 +2223,24 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="G21" t="s">
         <v>32</v>
@@ -2252,24 +2255,24 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F22" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -2284,24 +2287,24 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -2316,24 +2319,24 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2348,24 +2351,24 @@
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F25" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -2380,24 +2383,24 @@
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
@@ -2412,88 +2415,88 @@
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
         <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="F28" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
         <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J28" t="s">
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -2508,24 +2511,24 @@
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -2540,24 +2543,24 @@
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
@@ -2566,30 +2569,30 @@
         <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
@@ -2598,126 +2601,126 @@
         <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F33" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
         <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J33" t="s">
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F34" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s">
         <v>23</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H35" t="s">
         <v>23</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J35" t="s">
         <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F36" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -2732,24 +2735,24 @@
         <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -2764,24 +2767,24 @@
         <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -2796,24 +2799,24 @@
         <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -2828,24 +2831,24 @@
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -2860,24 +2863,24 @@
         <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F41" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G41" t="s">
         <v>32</v>
@@ -2892,24 +2895,24 @@
         <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F42" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="G42" t="s">
         <v>32</v>
@@ -2924,24 +2927,24 @@
         <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
@@ -2956,24 +2959,24 @@
         <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F44" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -2988,24 +2991,24 @@
         <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="F45" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -3020,24 +3023,24 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F46" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -3052,56 +3055,56 @@
         <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" t="s">
+        <v>214</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" t="s">
         <v>179</v>
-      </c>
-      <c r="B47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" t="s">
-        <v>180</v>
-      </c>
-      <c r="G47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" t="s">
-        <v>33</v>
-      </c>
-      <c r="J47" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="F48" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -3116,24 +3119,24 @@
         <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G49" t="s">
         <v>32</v>
@@ -3148,24 +3151,24 @@
         <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
@@ -3180,24 +3183,24 @@
         <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="F51" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -3212,24 +3215,24 @@
         <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="F52" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
@@ -3244,24 +3247,24 @@
         <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="F53" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="G53" t="s">
         <v>32</v>
@@ -3276,24 +3279,24 @@
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F54" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -3308,24 +3311,24 @@
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="F55" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="G55" t="s">
         <v>32</v>
@@ -3334,836 +3337,836 @@
         <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="F56" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
         <v>23</v>
       </c>
       <c r="I56" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J56" t="s">
         <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F57" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
         <v>23</v>
       </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F58" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
         <v>23</v>
       </c>
       <c r="I58" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F59" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
         <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J59" t="s">
         <v>17</v>
       </c>
       <c r="K59" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F60" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
         <v>23</v>
       </c>
       <c r="I60" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="B61" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="F61" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
         <v>23</v>
       </c>
       <c r="I61" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
       </c>
       <c r="K61" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
         <v>23</v>
       </c>
       <c r="I62" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J62" t="s">
         <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
         <v>23</v>
       </c>
       <c r="I63" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J63" t="s">
         <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="F64" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
         <v>23</v>
       </c>
       <c r="I64" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J64" t="s">
         <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
         <v>23</v>
       </c>
       <c r="I65" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
         <v>23</v>
       </c>
       <c r="I66" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J66" t="s">
         <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="F67" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
         <v>23</v>
       </c>
       <c r="I68" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F70" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J70" t="s">
         <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="F71" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
         <v>23</v>
       </c>
       <c r="I71" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J71" t="s">
         <v>17</v>
       </c>
       <c r="K71" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="F72" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J72" t="s">
         <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="F73" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
         <v>23</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J73" t="s">
         <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="F74" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="F75" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
         <v>23</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
       </c>
       <c r="K75" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
         <v>23</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J76" t="s">
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F77" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J77" t="s">
         <v>17</v>
       </c>
       <c r="K77" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F78" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J78" t="s">
         <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="F79" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J79" t="s">
         <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F80" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J80" t="s">
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F81" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G81" t="s">
         <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
         <v>47</v>
@@ -4172,24 +4175,24 @@
         <v>17</v>
       </c>
       <c r="K81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F82" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -4204,24 +4207,24 @@
         <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F83" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G83" t="s">
         <v>46</v>
@@ -4236,30 +4239,30 @@
         <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F84" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G84" t="s">
         <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I84" t="s">
         <v>47</v>
@@ -4268,30 +4271,30 @@
         <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F85" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G85" t="s">
         <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I85" t="s">
         <v>47</v>
@@ -4300,24 +4303,24 @@
         <v>17</v>
       </c>
       <c r="K85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F86" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G86" t="s">
         <v>46</v>
@@ -4332,30 +4335,30 @@
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F87" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G87" t="s">
         <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I87" t="s">
         <v>47</v>
@@ -4364,30 +4367,30 @@
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F88" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="G88" t="s">
         <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
         <v>47</v>
@@ -4396,30 +4399,30 @@
         <v>17</v>
       </c>
       <c r="K88" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="F89" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="G89" t="s">
         <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I89" t="s">
         <v>47</v>
@@ -4428,30 +4431,30 @@
         <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="F90" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
         <v>47</v>
@@ -4460,24 +4463,24 @@
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F91" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G91" t="s">
         <v>46</v>
@@ -4492,24 +4495,24 @@
         <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="F92" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="G92" t="s">
         <v>46</v>
@@ -4524,24 +4527,24 @@
         <v>17</v>
       </c>
       <c r="K92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="F93" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="G93" t="s">
         <v>46</v>
@@ -4556,24 +4559,24 @@
         <v>17</v>
       </c>
       <c r="K93" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="F94" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G94" t="s">
         <v>46</v>
@@ -4588,30 +4591,30 @@
         <v>17</v>
       </c>
       <c r="K94" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="F95" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="G95" t="s">
         <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I95" t="s">
         <v>47</v>
@@ -4620,30 +4623,30 @@
         <v>17</v>
       </c>
       <c r="K95" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="E96" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="F96" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="G96" t="s">
         <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I96" t="s">
         <v>47</v>
@@ -4652,30 +4655,30 @@
         <v>17</v>
       </c>
       <c r="K96" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="G97" t="s">
         <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I97" t="s">
         <v>47</v>
@@ -4684,30 +4687,30 @@
         <v>17</v>
       </c>
       <c r="K97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F98" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G98" t="s">
         <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I98" t="s">
         <v>47</v>
@@ -4716,30 +4719,30 @@
         <v>17</v>
       </c>
       <c r="K98" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B99" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F99" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G99" t="s">
         <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I99" t="s">
         <v>47</v>
@@ -4748,24 +4751,24 @@
         <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="F100" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="G100" t="s">
         <v>46</v>
@@ -4780,24 +4783,24 @@
         <v>17</v>
       </c>
       <c r="K100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="F101" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
@@ -4812,24 +4815,24 @@
         <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="F102" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="G102" t="s">
         <v>46</v>
@@ -4844,152 +4847,152 @@
         <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F103" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H103" t="s">
         <v>23</v>
       </c>
       <c r="I103" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="J103" t="s">
         <v>17</v>
       </c>
       <c r="K103" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="F104" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H104" t="s">
         <v>23</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F105" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
         <v>23</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J105" t="s">
         <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="B106" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="F106" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I106" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J106" t="s">
         <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="F107" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="G107" t="s">
         <v>46</v>
@@ -5004,30 +5007,30 @@
         <v>17</v>
       </c>
       <c r="K107" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="B108" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="F108" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="G108" t="s">
         <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I108" t="s">
         <v>47</v>
@@ -5036,24 +5039,24 @@
         <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="F109" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="G109" t="s">
         <v>46</v>
@@ -5068,30 +5071,30 @@
         <v>17</v>
       </c>
       <c r="K109" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="F110" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="G110" t="s">
         <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
         <v>47</v>
@@ -5100,30 +5103,30 @@
         <v>17</v>
       </c>
       <c r="K110" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F111" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G111" t="s">
         <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I111" t="s">
         <v>47</v>
@@ -5132,24 +5135,24 @@
         <v>17</v>
       </c>
       <c r="K111" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B112" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F112" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G112" t="s">
         <v>46</v>
@@ -5164,24 +5167,24 @@
         <v>17</v>
       </c>
       <c r="K112" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B113" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
       </c>
       <c r="E113" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F113" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G113" t="s">
         <v>46</v>
@@ -5196,312 +5199,312 @@
         <v>17</v>
       </c>
       <c r="K113" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="B114" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="F114" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H114" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J114" t="s">
         <v>17</v>
       </c>
       <c r="K114" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="F115" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H115" t="s">
         <v>23</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J115" t="s">
         <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="B116" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="F116" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H116" t="s">
         <v>23</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J116" t="s">
         <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="B117" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
       </c>
       <c r="E117" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="F117" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H117" t="s">
         <v>23</v>
       </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J117" t="s">
         <v>17</v>
       </c>
       <c r="K117" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="B118" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="F118" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H118" t="s">
         <v>23</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J118" t="s">
         <v>17</v>
       </c>
       <c r="K118" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="F119" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H119" t="s">
         <v>23</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J119" t="s">
         <v>17</v>
       </c>
       <c r="K119" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="B120" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="F120" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H120" t="s">
         <v>23</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J120" t="s">
         <v>17</v>
       </c>
       <c r="K120" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="F121" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H121" t="s">
         <v>23</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J121" t="s">
         <v>17</v>
       </c>
       <c r="K121" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="B122" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="F122" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="G122" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H122" t="s">
         <v>23</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J122" t="s">
         <v>17</v>
       </c>
       <c r="K122" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="B123" t="s">
-        <v>230</v>
+        <v>109</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>230</v>
+        <v>109</v>
       </c>
       <c r="F123" t="s">
-        <v>230</v>
+        <v>109</v>
       </c>
       <c r="G123" t="s">
         <v>32</v>
@@ -5516,24 +5519,24 @@
         <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B124" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F124" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G124" t="s">
         <v>32</v>
@@ -5542,135 +5545,135 @@
         <v>23</v>
       </c>
       <c r="I124" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="J124" t="s">
         <v>17</v>
       </c>
       <c r="K124" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G125" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H125" t="s">
         <v>23</v>
       </c>
       <c r="I125" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J125" t="s">
         <v>17</v>
       </c>
       <c r="K125" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G126" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H126" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I126" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J126" t="s">
         <v>17</v>
       </c>
       <c r="K126" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G127" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H127" t="s">
         <v>23</v>
       </c>
       <c r="I127" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J127" t="s">
         <v>17</v>
       </c>
       <c r="K127" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B128" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="G128" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H128" t="s">
         <v>23</v>
       </c>
       <c r="I128" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="J128" t="s">
         <v>17</v>
@@ -5681,19 +5684,19 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
       </c>
       <c r="E129" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G129" t="s">
         <v>14</v>
@@ -5713,19 +5716,19 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G130" t="s">
         <v>14</v>
@@ -5745,19 +5748,19 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G131" t="s">
         <v>14</v>
@@ -5777,19 +5780,19 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C132" t="s">
         <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
@@ -5809,19 +5812,19 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C133" t="s">
         <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F133" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G133" t="s">
         <v>14</v>
@@ -5841,28 +5844,28 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J134" t="s">
         <v>17</v>
@@ -5873,28 +5876,28 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B135" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G135" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
         <v>23</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J135" t="s">
         <v>17</v>
@@ -5905,28 +5908,28 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B136" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F136" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
         <v>23</v>
       </c>
       <c r="I136" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J136" t="s">
         <v>17</v>
@@ -5937,28 +5940,28 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B137" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F137" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
         <v>23</v>
       </c>
       <c r="I137" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J137" t="s">
         <v>17</v>
@@ -5969,28 +5972,28 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B138" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H138" t="s">
         <v>23</v>
       </c>
       <c r="I138" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J138" t="s">
         <v>17</v>
@@ -6001,28 +6004,28 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B139" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C139" t="s">
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F139" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H139" t="s">
         <v>23</v>
       </c>
       <c r="I139" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J139" t="s">
         <v>17</v>
@@ -6417,16 +6420,16 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B152" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
       </c>
       <c r="E152" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G152" t="s">
         <v>32</v>
@@ -6440,16 +6443,16 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B153" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
       </c>
       <c r="E153" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G153" t="s">
         <v>32</v>
@@ -6463,7 +6466,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B154" t="s">
         <v>58</v>
@@ -6486,16 +6489,16 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B155" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C155" t="s">
         <v>13</v>
       </c>
       <c r="E155" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G155" t="s">
         <v>32</v>
@@ -6509,16 +6512,16 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B156" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G156" t="s">
         <v>14</v>
@@ -6532,16 +6535,16 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B157" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
       </c>
       <c r="E157" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G157" t="s">
         <v>14</v>
@@ -6555,16 +6558,16 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B158" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
       </c>
       <c r="E158" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G158" t="s">
         <v>14</v>
@@ -6578,16 +6581,16 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B159" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C159" t="s">
         <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G159" t="s">
         <v>14</v>
@@ -6601,16 +6604,16 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B160" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C160" t="s">
         <v>13</v>
       </c>
       <c r="E160" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G160" t="s">
         <v>14</v>
@@ -6624,16 +6627,16 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B161" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
       </c>
       <c r="E161" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G161" t="s">
         <v>46</v>
@@ -6647,16 +6650,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B162" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C162" t="s">
         <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G162" t="s">
         <v>46</v>
@@ -6670,16 +6673,16 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B163" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G163" t="s">
         <v>46</v>
@@ -6693,16 +6696,16 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B164" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G164" t="s">
         <v>46</v>
@@ -6716,16 +6719,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B165" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C165" t="s">
         <v>13</v>
       </c>
       <c r="E165" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G165" t="s">
         <v>46</v>
@@ -6739,7 +6742,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B166" t="s">
         <v>45</v>
@@ -6762,16 +6765,16 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B167" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
       </c>
       <c r="E167" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G167" t="s">
         <v>46</v>
@@ -6785,16 +6788,16 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B168" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C168" t="s">
         <v>13</v>
       </c>
       <c r="E168" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G168" t="s">
         <v>46</v>
@@ -6808,16 +6811,16 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B169" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C169" t="s">
         <v>13</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G169" t="s">
         <v>46</v>
@@ -6831,16 +6834,16 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B170" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C170" t="s">
         <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G170" t="s">
         <v>46</v>
@@ -6854,16 +6857,16 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B171" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C171" t="s">
         <v>13</v>
       </c>
       <c r="E171" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G171" t="s">
         <v>46</v>
@@ -6877,16 +6880,16 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B172" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
       </c>
       <c r="E172" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G172" t="s">
         <v>46</v>
@@ -6900,16 +6903,16 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B173" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
       </c>
       <c r="E173" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G173" t="s">
         <v>46</v>
@@ -6923,16 +6926,16 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B174" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
       </c>
       <c r="E174" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G174" t="s">
         <v>46</v>
@@ -6946,16 +6949,16 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B175" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C175" t="s">
         <v>13</v>
       </c>
       <c r="E175" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G175" t="s">
         <v>46</v>
@@ -6969,16 +6972,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B176" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C176" t="s">
         <v>13</v>
       </c>
       <c r="E176" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G176" t="s">
         <v>46</v>
@@ -6992,16 +6995,16 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C177" t="s">
         <v>13</v>
       </c>
       <c r="E177" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -7015,16 +7018,16 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
       </c>
       <c r="E178" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G178" t="s">
         <v>32</v>
@@ -7038,16 +7041,16 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C179" t="s">
         <v>13</v>
       </c>
       <c r="E179" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G179" t="s">
         <v>32</v>
@@ -7061,16 +7064,16 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B180" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C180" t="s">
         <v>13</v>
       </c>
       <c r="E180" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G180" t="s">
         <v>32</v>
@@ -7084,16 +7087,16 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B181" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C181" t="s">
         <v>13</v>
       </c>
       <c r="E181" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G181" t="s">
         <v>32</v>
@@ -7107,16 +7110,16 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B182" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C182" t="s">
         <v>13</v>
       </c>
       <c r="E182" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G182" t="s">
         <v>32</v>
@@ -7130,16 +7133,16 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B183" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C183" t="s">
         <v>13</v>
       </c>
       <c r="E183" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G183" t="s">
         <v>32</v>
@@ -7153,16 +7156,16 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B184" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C184" t="s">
         <v>13</v>
       </c>
       <c r="E184" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -7176,16 +7179,16 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B185" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C185" t="s">
         <v>13</v>
       </c>
       <c r="E185" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G185" t="s">
         <v>32</v>
@@ -7199,16 +7202,16 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B186" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
       </c>
       <c r="E186" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G186" t="s">
         <v>32</v>
@@ -7222,16 +7225,16 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B187" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C187" t="s">
         <v>13</v>
       </c>
       <c r="E187" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -7245,7 +7248,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B188" t="s">
         <v>55</v>
@@ -7268,16 +7271,16 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B189" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C189" t="s">
         <v>13</v>
       </c>
       <c r="E189" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G189" t="s">
         <v>32</v>
@@ -7291,16 +7294,16 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B190" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
       </c>
       <c r="E190" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G190" t="s">
         <v>32</v>
@@ -7314,16 +7317,16 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B191" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C191" t="s">
         <v>13</v>
       </c>
       <c r="E191" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G191" t="s">
         <v>32</v>
@@ -7337,16 +7340,16 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B192" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
       </c>
       <c r="E192" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G192" t="s">
         <v>32</v>
@@ -7360,16 +7363,16 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B193" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C193" t="s">
         <v>13</v>
       </c>
       <c r="E193" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G193" t="s">
         <v>32</v>
@@ -7383,16 +7386,16 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B194" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C194" t="s">
         <v>13</v>
       </c>
       <c r="E194" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G194" t="s">
         <v>32</v>
@@ -7406,16 +7409,16 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B195" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C195" t="s">
         <v>13</v>
       </c>
       <c r="E195" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G195" t="s">
         <v>32</v>
@@ -7429,16 +7432,16 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B196" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C196" t="s">
         <v>13</v>
       </c>
       <c r="E196" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G196" t="s">
         <v>32</v>
@@ -7452,16 +7455,16 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B197" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C197" t="s">
         <v>13</v>
       </c>
       <c r="E197" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G197" t="s">
         <v>32</v>
@@ -7475,7 +7478,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B198" t="s">
         <v>61</v>
@@ -7498,16 +7501,16 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B199" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
       </c>
       <c r="E199" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G199" t="s">
         <v>32</v>
@@ -7521,16 +7524,16 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B200" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
       </c>
       <c r="E200" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G200" t="s">
         <v>32</v>
@@ -7544,16 +7547,16 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B201" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
       </c>
       <c r="E201" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G201" t="s">
         <v>32</v>
@@ -7567,16 +7570,16 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B202" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
       </c>
       <c r="E202" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G202" t="s">
         <v>32</v>
@@ -7590,16 +7593,16 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B203" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C203" t="s">
         <v>13</v>
       </c>
       <c r="E203" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G203" t="s">
         <v>32</v>
@@ -7613,16 +7616,16 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B204" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C204" t="s">
         <v>13</v>
       </c>
       <c r="E204" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G204" t="s">
         <v>32</v>
@@ -7636,16 +7639,16 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B205" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C205" t="s">
         <v>13</v>
       </c>
       <c r="E205" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G205" t="s">
         <v>32</v>
@@ -7659,16 +7662,16 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B206" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C206" t="s">
         <v>13</v>
       </c>
       <c r="E206" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G206" t="s">
         <v>32</v>
@@ -7682,16 +7685,16 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B207" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C207" t="s">
         <v>13</v>
       </c>
       <c r="E207" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G207" t="s">
         <v>32</v>
@@ -7705,16 +7708,16 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B208" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C208" t="s">
         <v>13</v>
       </c>
       <c r="E208" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G208" t="s">
         <v>32</v>
@@ -7728,16 +7731,16 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B209" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C209" t="s">
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G209" t="s">
         <v>32</v>
@@ -7751,16 +7754,16 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B210" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C210" t="s">
         <v>13</v>
       </c>
       <c r="E210" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G210" t="s">
         <v>32</v>
@@ -7774,16 +7777,16 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B211" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C211" t="s">
         <v>13</v>
       </c>
       <c r="E211" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G211" t="s">
         <v>32</v>
@@ -7797,16 +7800,16 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B212" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
       </c>
       <c r="E212" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G212" t="s">
         <v>32</v>
@@ -7820,16 +7823,16 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B213" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C213" t="s">
         <v>13</v>
       </c>
       <c r="E213" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -7843,16 +7846,16 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B214" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
       </c>
       <c r="E214" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G214" t="s">
         <v>32</v>
@@ -7866,7 +7869,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B215" t="s">
         <v>51</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B216" t="s">
         <v>53</v>
@@ -7912,7 +7915,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B217" t="s">
         <v>31</v>
@@ -7935,7 +7938,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B218" t="s">
         <v>35</v>
@@ -7958,7 +7961,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B219" t="s">
         <v>37</v>
@@ -7981,7 +7984,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B220" t="s">
         <v>39</v>
@@ -8004,7 +8007,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B221" t="s">
         <v>41</v>
@@ -8027,7 +8030,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B222" t="s">
         <v>43</v>
@@ -8050,16 +8053,16 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B223" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C223" t="s">
         <v>13</v>
       </c>
       <c r="E223" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G223" t="s">
         <v>32</v>
@@ -8073,16 +8076,16 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B224" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C224" t="s">
         <v>13</v>
       </c>
       <c r="E224" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G224" t="s">
         <v>32</v>
@@ -8096,16 +8099,16 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B225" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C225" t="s">
         <v>13</v>
       </c>
       <c r="E225" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G225" t="s">
         <v>32</v>
@@ -8119,16 +8122,16 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B226" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
       </c>
       <c r="E226" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G226" t="s">
         <v>32</v>
@@ -8142,16 +8145,16 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B227" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C227" t="s">
         <v>13</v>
       </c>
       <c r="E227" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G227" t="s">
         <v>32</v>
@@ -8165,16 +8168,16 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B228" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C228" t="s">
         <v>13</v>
       </c>
       <c r="E228" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G228" t="s">
         <v>32</v>
@@ -8188,16 +8191,16 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B229" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C229" t="s">
         <v>13</v>
       </c>
       <c r="E229" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G229" t="s">
         <v>32</v>
@@ -8211,16 +8214,16 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B230" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C230" t="s">
         <v>13</v>
       </c>
       <c r="E230" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G230" t="s">
         <v>32</v>
@@ -8234,16 +8237,16 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B231" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C231" t="s">
         <v>13</v>
       </c>
       <c r="E231" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G231" t="s">
         <v>32</v>
@@ -8257,16 +8260,16 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B232" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C232" t="s">
         <v>13</v>
       </c>
       <c r="E232" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G232" t="s">
         <v>32</v>
@@ -8280,16 +8283,16 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B233" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C233" t="s">
         <v>13</v>
       </c>
       <c r="E233" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G233" t="s">
         <v>32</v>
@@ -8303,16 +8306,16 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B234" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C234" t="s">
         <v>13</v>
       </c>
       <c r="E234" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G234" t="s">
         <v>32</v>
@@ -8326,16 +8329,16 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B235" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C235" t="s">
         <v>13</v>
       </c>
       <c r="E235" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G235" t="s">
         <v>32</v>
@@ -8349,16 +8352,16 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B236" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C236" t="s">
         <v>13</v>
       </c>
       <c r="E236" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G236" t="s">
         <v>32</v>
@@ -8372,16 +8375,16 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B237" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C237" t="s">
         <v>13</v>
       </c>
       <c r="E237" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G237" t="s">
         <v>32</v>
@@ -8395,16 +8398,16 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B238" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C238" t="s">
         <v>13</v>
       </c>
       <c r="E238" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G238" t="s">
         <v>32</v>
@@ -8418,16 +8421,16 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B239" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
       </c>
       <c r="E239" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G239" t="s">
         <v>32</v>
@@ -8441,16 +8444,16 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B240" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C240" t="s">
         <v>13</v>
       </c>
       <c r="E240" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G240" t="s">
         <v>32</v>
@@ -8464,16 +8467,16 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B241" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C241" t="s">
         <v>13</v>
       </c>
       <c r="E241" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G241" t="s">
         <v>32</v>
@@ -8487,16 +8490,16 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B242" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C242" t="s">
         <v>13</v>
       </c>
       <c r="E242" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G242" t="s">
         <v>32</v>
@@ -8510,16 +8513,16 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B243" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C243" t="s">
         <v>13</v>
       </c>
       <c r="E243" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G243" t="s">
         <v>32</v>
@@ -8533,16 +8536,16 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B244" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C244" t="s">
         <v>13</v>
       </c>
       <c r="E244" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G244" t="s">
         <v>32</v>
@@ -8556,16 +8559,16 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B245" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C245" t="s">
         <v>13</v>
       </c>
       <c r="E245" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G245" t="s">
         <v>32</v>
@@ -8579,16 +8582,16 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B246" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C246" t="s">
         <v>13</v>
       </c>
       <c r="E246" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G246" t="s">
         <v>32</v>
@@ -8602,16 +8605,16 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B247" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C247" t="s">
         <v>13</v>
       </c>
       <c r="E247" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G247" t="s">
         <v>32</v>
@@ -8625,16 +8628,16 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B248" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C248" t="s">
         <v>13</v>
       </c>
       <c r="E248" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G248" t="s">
         <v>32</v>
@@ -8648,16 +8651,16 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B249" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
       </c>
       <c r="E249" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G249" t="s">
         <v>32</v>
@@ -8670,10 +8673,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K249">
-    <sortCondition ref="K1:K249"/>
-    <sortCondition ref="I1:I249"/>
-    <sortCondition ref="F1:F249"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K249">
+    <sortCondition ref="K2:K249"/>
+    <sortCondition ref="I2:I249"/>
+    <sortCondition ref="F2:F249"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
